--- a/biology/Mycologie/Leccinellum/Leccinellum.xlsx
+++ b/biology/Mycologie/Leccinellum/Leccinellum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leccinellum est un genre de champignons de la famille des Boletaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (13 novembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (13 novembre 2023) :
 Leccinellum aberrans (J. Blum) C. Hahn, 2020
 Leccinellum albellum (Peck) Bresinsky &amp; Manfr. Binder, 2003
 Leccinellum alborufescens N.K. Zeng, R. Xue &amp; S. Jiang, 2019
@@ -542,7 +556,7 @@
 Leccinellum sandmanii D. Puddu, 2023
 Leccinellum tlemcenense (Maire) C. Hahn, 2020
 Leccinellum viscosum (Halling &amp; B. Ortiz) Mikšík, 2016
-Espèces présentes en France selon l'INPN      (13 novembre 2023)[2] :
+Espèces présentes en France selon l'INPN      (13 novembre 2023) :
 Leccinellum corsicum (Rolland) Bresinsky &amp; Manfr.Binder, 2003
 Leccinellum crocipodium (Letell.) Della Magg. &amp; Trassin., 2014
 Leccinellum lepidum (H. Bouchet ex Essette) Bresinsky &amp; Manfr. Binder, 2003
@@ -575,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) A. Bresinsky et H., « Beiträge zu einer Mykoflora Deutschlands - Schlüssel zur Gattungsbestimmung der Blätter-, Leisten- und Röhrenpilze mit Literaturhinweisen zur Artbestimmung », Regensburger Mykologische Schriften, vol. 11,‎ 2003, p. 1-236</t>
         </is>
